--- a/Rules/Rules.xlsx
+++ b/Rules/Rules.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Web RT\ProjectHelmie-monitoringAir\Rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerjaan Rumah\Iseng-iseng\ProjectHelmie-monitoringAir\Rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82CA69D6-2EEB-41A0-ABF8-1FDCEF3CC31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D922D579-F2A0-4FEE-8214-E74432D73C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7D21305C-36CC-42CA-9EDA-114697379A70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{7D21305C-36CC-42CA-9EDA-114697379A70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="update rules" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="22">
   <si>
     <t>Suhu</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>off</t>
+  </si>
+  <si>
+    <t>Pump 3 : pH drain and fill</t>
   </si>
 </sst>
 </file>
@@ -217,10 +220,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -539,26 +542,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802BD776-EF30-4E61-88EF-85088943CA4D}">
   <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
       <c r="I2" t="s">
         <v>12</v>
       </c>
@@ -1276,4 +1279,495 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218EC515-5E2A-48E9-ABB9-63C94928262C}">
+  <dimension ref="B1:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>